--- a/teams/vsa/teams/vamc/capacity/vamc-upgrade-capacity.xlsx
+++ b/teams/vsa/teams/vamc/capacity/vamc-upgrade-capacity.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan Gardner\Documents\VAMC_Website_Project_Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan Gardner\Documents\A_Weekly_Deliverable_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624C983F-9704-4FF1-97AF-8936CD13EE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74B247D9-519E-4F13-8460-10C20E1826FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17265" yWindow="2385" windowWidth="21600" windowHeight="11265" xr2:uid="{1481FF7B-F65D-431C-8BA3-AC1EA6A25EA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{1481FF7B-F65D-431C-8BA3-AC1EA6A25EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="vamc-upgrade Sprint 8" sheetId="5" r:id="rId1"/>
-    <sheet name="DevTeam" sheetId="6" r:id="rId2"/>
+    <sheet name="vamc-upgrade Sprint 9" sheetId="8" r:id="rId2"/>
+    <sheet name="vamc-upgrade Sprint 10" sheetId="9" r:id="rId3"/>
+    <sheet name="vamc-upgrade Sprint 11" sheetId="10" r:id="rId4"/>
+    <sheet name="DevTeam" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'vamc-upgrade Sprint 10'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'vamc-upgrade Sprint 11'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vamc-upgrade Sprint 8'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'vamc-upgrade Sprint 9'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -140,6 +146,18 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>November 20th - Dec 3</t>
+  </si>
+  <si>
+    <t>November 6th - 19th</t>
+  </si>
+  <si>
+    <t>December 4th-17th</t>
+  </si>
+  <si>
+    <t>December 18th-31st</t>
   </si>
 </sst>
 </file>
@@ -692,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A41D15-68F6-417D-8066-96D8962EEFFF}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +903,11 @@
         <v>282</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6EA62A22-1C4F-45DD-82B6-EE4F4FA9963A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
@@ -897,6 +920,639 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975C3B00-A99E-49B4-9672-367F188C5AAF}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <f>B2-C2</f>
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5">
+        <f>D2*E2</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D7" si="0">B3-C3</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F7" si="1">D3*E3</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="16">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18">
+        <f>SUM(B2:B8)</f>
+        <v>54</v>
+      </c>
+      <c r="C9" s="10">
+        <f>SUM(C2:C7)</f>
+        <v>11</v>
+      </c>
+      <c r="D9" s="10">
+        <f>SUM(D2:D7)</f>
+        <v>43</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f>SUM(F2:F7)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{6EA62A22-1C4F-45DD-82B6-EE4F4FA9963A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AF47D9-86E2-48D8-BAD4-0080DF67B57F}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <f>B2-C2</f>
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5">
+        <f>D2*E2</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D7" si="0">B3-C3</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F7" si="1">D3*E3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="16">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18">
+        <f>SUM(B2:B8)</f>
+        <v>60</v>
+      </c>
+      <c r="C9" s="10">
+        <f>SUM(C2:C7)</f>
+        <v>14</v>
+      </c>
+      <c r="D9" s="10">
+        <f>SUM(D2:D7)</f>
+        <v>46</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f>SUM(F2:F7)</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{6EA62A22-1C4F-45DD-82B6-EE4F4FA9963A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486CCE65-D5F3-4FAD-BFDE-B93F2540AA24}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="9">
+        <f>B2-C2</f>
+        <v>7.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5">
+        <f>D2*E2</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D7" si="0">B3-C3</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F7" si="1">D3*E3</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="16">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18">
+        <f>SUM(B2:B8)</f>
+        <v>48</v>
+      </c>
+      <c r="C9" s="10">
+        <f>SUM(C2:C7)</f>
+        <v>5.5</v>
+      </c>
+      <c r="D9" s="10">
+        <f>SUM(D2:D7)</f>
+        <v>42.5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f>SUM(F2:F7)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{6EA62A22-1C4F-45DD-82B6-EE4F4FA9963A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA7B7F4-3849-47A5-AA11-201EA80DE589}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
@@ -1162,13 +1818,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6078366D-686A-4226-9E17-F7250B059129}">
           <x14:formula1>
-            <xm:f>[Backlog_Project.xlsx]Data!#REF!</xm:f>
+            <xm:f>'C:\Users\Stan Gardner\Documents\VAMC_Website_Project_Docs\[Backlog_Project.xlsx]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F22:F28 F2:F18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E99F992B-7338-40CD-AE48-1D53D19040D7}">
           <x14:formula1>
-            <xm:f>[Backlog_Project.xlsx]Data!#REF!</xm:f>
+            <xm:f>'C:\Users\Stan Gardner\Documents\VAMC_Website_Project_Docs\[Backlog_Project.xlsx]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A29</xm:sqref>
         </x14:dataValidation>
